--- a/lecture 4/examples/ex2.xlsx
+++ b/lecture 4/examples/ex2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,7 +436,32 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>a</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>c</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>message</t>
         </is>
       </c>
     </row>
@@ -445,7 +470,24 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.5010027615175823</v>
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E2" t="n">
+        <v>3</v>
+      </c>
+      <c r="F2" t="n">
+        <v>4</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>hello</t>
+        </is>
       </c>
     </row>
     <row r="3">
@@ -453,7 +495,24 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.1283025591749987</v>
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>6</v>
+      </c>
+      <c r="E3" t="n">
+        <v>7</v>
+      </c>
+      <c r="F3" t="n">
+        <v>8</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>world</t>
+        </is>
       </c>
     </row>
     <row r="4">
@@ -461,63 +520,24 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.414605966484309</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>0.6045777859731639</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>2.134094753235767</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>0.9411878373853054</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>-0.9314567957057386</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>-0.1246675392556697</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>0.2006962909371466</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="n">
-        <v>0.1802562855551811</v>
+      <c r="D4" t="n">
+        <v>10</v>
+      </c>
+      <c r="E4" t="n">
+        <v>11</v>
+      </c>
+      <c r="F4" t="n">
+        <v>12</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>foo</t>
+        </is>
       </c>
     </row>
   </sheetData>
